--- a/BIMASAKTI_11/1.00/PROGRAM/BS Program/SOURCE/API/GL/BIMASAKTI_GL_API/Template/GL_ACCOUNT_BUDGET_UPLOAD.xlsx
+++ b/BIMASAKTI_11/1.00/PROGRAM/BS Program/SOURCE/API/GL/BIMASAKTI_GL_API/Template/GL_ACCOUNT_BUDGET_UPLOAD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PM\BIMASAKTI_11\Design\Program Specs\GL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RealCode\RSF\BIMASAKTI_11\1.00\PROGRAM\BS Program\SOURCE\API\GL\BIMASAKTI_GL_API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2C9095-5292-4F7A-9766-B13B833955A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B88209-A87A-4E97-8340-0D01AA67E5C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="74">
   <si>
     <t>Length</t>
   </si>
@@ -354,12 +354,6 @@
     <t>Center</t>
   </si>
   <si>
-    <t>ACC</t>
-  </si>
-  <si>
-    <t>15.10.0000</t>
-  </si>
-  <si>
     <t>Period_1</t>
   </si>
   <si>
@@ -403,12 +397,6 @@
   </si>
   <si>
     <t>Period_15</t>
-  </si>
-  <si>
-    <t>B2023</t>
-  </si>
-  <si>
-    <t>Budget 2023</t>
   </si>
   <si>
     <t>L</t>
@@ -946,7 +934,7 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,7 +960,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>24</v>
@@ -993,186 +981,98 @@
         <v>29</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>2023</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="I2" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="J2" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="K2" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="L2" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M2" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="N2" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="O2" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="P2" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="R2" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="S2" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="T2" s="2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2">
-        <v>0</v>
-      </c>
+      <c r="A2" s="7"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2023</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="I3" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="J3" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="K3" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="L3" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M3" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="N3" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="O3" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="P3" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="R3" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="S3" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0</v>
-      </c>
+      <c r="A3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
@@ -1272,7 +1172,7 @@
   <sheetData>
     <row r="1" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="C1" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
@@ -1283,7 +1183,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1338,10 +1238,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1361,7 +1261,7 @@
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1381,7 +1281,7 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -1401,22 +1301,22 @@
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -1427,13 +1327,13 @@
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1442,7 +1342,7 @@
         <v>28</v>
       </c>
       <c r="N13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
@@ -1493,10 +1393,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -1511,13 +1411,13 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L16" s="16">
         <v>100000000</v>
       </c>
       <c r="N16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -1525,10 +1425,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -1543,13 +1443,13 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L17" s="16">
         <v>100000000</v>
       </c>
       <c r="N17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
@@ -1557,10 +1457,10 @@
         <v>10</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -1575,13 +1475,13 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L18" s="16">
         <v>100000000</v>
       </c>
       <c r="N18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
@@ -1589,10 +1489,10 @@
         <v>11</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -1607,13 +1507,13 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L19" s="16">
         <v>100000000</v>
       </c>
       <c r="N19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
@@ -1621,10 +1521,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -1639,13 +1539,13 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L20" s="16">
         <v>100000000</v>
       </c>
       <c r="N20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
@@ -1653,10 +1553,10 @@
         <v>13</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -1671,13 +1571,13 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L21" s="16">
         <v>100000000</v>
       </c>
       <c r="N21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
@@ -1685,10 +1585,10 @@
         <v>14</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -1703,13 +1603,13 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L22" s="16">
         <v>100000000</v>
       </c>
       <c r="N22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
@@ -1717,10 +1617,10 @@
         <v>15</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -1735,13 +1635,13 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L23" s="16">
         <v>100000000</v>
       </c>
       <c r="N23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
@@ -1749,10 +1649,10 @@
         <v>16</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -1767,13 +1667,13 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L24" s="16">
         <v>100000000</v>
       </c>
       <c r="N24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
@@ -1781,10 +1681,10 @@
         <v>17</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -1799,13 +1699,13 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L25" s="16">
         <v>100000000</v>
       </c>
       <c r="N25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
@@ -1813,10 +1713,10 @@
         <v>18</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -1831,13 +1731,13 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L26" s="16">
         <v>100000000</v>
       </c>
       <c r="N26" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
@@ -1845,10 +1745,10 @@
         <v>19</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -1863,13 +1763,13 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L27" s="16">
         <v>100000000</v>
       </c>
       <c r="N27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
@@ -1877,10 +1777,10 @@
         <v>20</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -1895,13 +1795,13 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L28" s="16">
         <v>100000000</v>
       </c>
       <c r="N28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
@@ -1909,10 +1809,10 @@
         <v>21</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -1927,13 +1827,13 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L29" s="16">
         <v>100000000</v>
       </c>
       <c r="N29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
@@ -1941,10 +1841,10 @@
         <v>22</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -1959,13 +1859,13 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L30" s="16">
         <v>100000000</v>
       </c>
       <c r="N30" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
